--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -752,26 +752,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>4165000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3856000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2553000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2382000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1932000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
@@ -785,26 +785,26 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>18812000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16753000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15110000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>12318000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11327000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10320000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9846000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21846000</v>
+      </c>
+      <c r="E8" s="3">
         <v>22977000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20609000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18358000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15082000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13880000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12702000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11778000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10421000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9188000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4512000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4165000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3856000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3248000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2764000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2553000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2382000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1932000</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17334000</v>
+      </c>
+      <c r="E10" s="3">
         <v>18812000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16753000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15110000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12318000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11327000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10320000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9846000</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,75 +910,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>607000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1879000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>453000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4106000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E15" s="3">
         <v>656000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>613000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>556000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>502000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>494000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>435000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>397000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>333000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>288000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7765000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7976000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7655000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6214000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7199000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4816000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5005000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4554000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8288000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3732000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14081000</v>
+      </c>
+      <c r="E18" s="3">
         <v>15001000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12954000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12144000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7883000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9064000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7697000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7224000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5456000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,91 +1086,98 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E20" s="3">
         <v>416000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>464000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>113000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>556000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-69000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>74000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>232000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15073000</v>
+      </c>
+      <c r="E21" s="3">
         <v>16073000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14031000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12813000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8941000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9489000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8159000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7654000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2540000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5976000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E22" s="3">
         <v>533000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>612000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>563000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>427000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1148,78 +1188,87 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13790000</v>
+      </c>
+      <c r="E23" s="3">
         <v>14884000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12806000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11694000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8012000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8995000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7724000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7257000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2207000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5656000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2924000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2804000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2491000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4995000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2021000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2667000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2286000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2277000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2010000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10866000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12080000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10315000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6699000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5991000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6328000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5438000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4980000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2142000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3646000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10475000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11650000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9956000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6467000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5929000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6313000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5421000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4961000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2137000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3638000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,20 +1407,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-14000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1379,12 +1440,15 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-416000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-464000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-113000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-556000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>69000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-74000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-232000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10475000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11650000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9942000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6467000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5929000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6313000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5421000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4961000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2137000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3638000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10475000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11650000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9942000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6467000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5929000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6313000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5421000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4961000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2137000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3638000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,107 +1735,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16289000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7838000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8162000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9874000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5619000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3518000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1971000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2186000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2074000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2127000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3752000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4236000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3547000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3564000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3319000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2497000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1979000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2069000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>743000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1271000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2882000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4590000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2790000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2554000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2740000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1332000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1699000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1702000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1356000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1084000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,174 +1876,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4722000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4306000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3717000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3031000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2635000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3545000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3913000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1865000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7613000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4708000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27645000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20970000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18216000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19023000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14313000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10021000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9562000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7822000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11786000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9190000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2157000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4082000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1926000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4708000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4056000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3647000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3043000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3369000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>811000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2737000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2695000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2472000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2253000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2150000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1888000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1892000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1732000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1634000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1541000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43718000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42436000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42752000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42958000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42300000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34195000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23164000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23032000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23101000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23104000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6588000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4316000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1703000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1817000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>564000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>216000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>304000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>327000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>80919000</v>
+      </c>
+      <c r="E54" s="3">
         <v>72574000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69225000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67977000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64035000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39367000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38569000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35956000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40013000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34760000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,55 +2271,59 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E57" s="3">
         <v>156000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>183000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>179000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>203000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>127000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>147000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>152000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>169000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>2999000</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1749000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2203,96 +2337,105 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11337000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13259000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11122000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8066000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7843000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5309000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5859000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4151000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7802000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3282000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14510000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13415000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11305000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9994000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8046000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5355000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6006000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4335000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7954000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3451000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21071000</v>
+      </c>
+      <c r="E61" s="3">
         <v>16729000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16630000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16618000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15882000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2305,42 +2448,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9128000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7746000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7284000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8605000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7195000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4170000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5150000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4751000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4429000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4872000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44709000</v>
+      </c>
+      <c r="E66" s="3">
         <v>37890000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35219000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35217000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31123000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9525000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11156000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9086000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12383000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8323000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,27 +2716,30 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>5086000</v>
+      </c>
+      <c r="E70" s="3">
         <v>5462000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5470000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5526000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5717000</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2584,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14088000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13502000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11318000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9508000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10462000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11843000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9131000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7974000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7809000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6706000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31124000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29222000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28536000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27234000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27195000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29842000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27413000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26870000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27630000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26437000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10475000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11650000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9942000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6467000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5929000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6313000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5421000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4961000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2137000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3638000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E83" s="3">
         <v>656000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>613000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>556000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>502000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>494000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>435000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>397000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>333000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>288000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10440000</v>
+      </c>
+      <c r="E89" s="3">
         <v>12784000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12941000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9317000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5574000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6584000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7205000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3022000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5009000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3872000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-736000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-756000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-718000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-707000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-523000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-414000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-553000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-471000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-376000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-353000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-591000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3084000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>735000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10916000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1435000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-941000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2414000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2664000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2269000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1918000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1579000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1350000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-864000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-595000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-423000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3968000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12061000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10790000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5924000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7477000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3603000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6478000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2655000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3304000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-277000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-101000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>236000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-34000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8339000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-145000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1034000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4364000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1547000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-215000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>112000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1740000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24105000</v>
+      </c>
+      <c r="E8" s="3">
         <v>21846000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22977000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20609000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18358000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15082000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13880000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12702000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11778000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10421000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9188000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4970000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4512000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4165000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3856000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3248000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2764000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2553000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2382000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1932000</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19135000</v>
+      </c>
+      <c r="E10" s="3">
         <v>17334000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18812000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16753000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15110000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12318000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11327000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10320000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9846000</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -877,9 +891,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,81 +930,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>607000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1879000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>453000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4106000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E15" s="3">
         <v>767000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>656000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>613000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>556000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>502000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>494000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>435000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>397000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>333000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>288000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8301000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7765000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7976000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7655000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6214000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7199000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4816000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5005000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4554000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8288000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3732000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15804000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14081000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15001000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12954000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12144000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7883000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9064000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7697000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7224000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2133000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5456000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,100 +1120,107 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E20" s="3">
         <v>225000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>416000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>464000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>113000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>556000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-69000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>74000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>232000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17380000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15073000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16073000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14031000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12813000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8941000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9489000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8159000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7654000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2540000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5976000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E22" s="3">
         <v>516000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>533000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>612000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>563000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>427000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1191,84 +1231,93 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16063000</v>
+      </c>
+      <c r="E23" s="3">
         <v>13790000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14884000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12806000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11694000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8012000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8995000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7724000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7257000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2207000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5656000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3752000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2924000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2804000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2491000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4995000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2021000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2667000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2286000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2277000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2010000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12311000</v>
+      </c>
+      <c r="E26" s="3">
         <v>10866000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12080000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10315000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6699000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5991000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6328000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5438000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4980000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2142000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3646000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12008000</v>
+      </c>
+      <c r="E27" s="3">
         <v>10475000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11650000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9956000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6467000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5929000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6313000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5421000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4961000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2137000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3638000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,23 +1468,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-14000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1443,12 +1504,15 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-772000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-225000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-416000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-464000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-113000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-556000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>69000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-74000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-232000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12008000</v>
+      </c>
+      <c r="E33" s="3">
         <v>10475000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11650000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9942000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6467000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5929000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6313000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5421000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4961000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2137000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3638000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12008000</v>
+      </c>
+      <c r="E35" s="3">
         <v>10475000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11650000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9942000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6467000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5929000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6313000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5421000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4961000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2137000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3638000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,116 +1822,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16487000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16289000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7838000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8162000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9874000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5619000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3518000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1971000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2186000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2074000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2127000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2025000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3752000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4236000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3547000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3564000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3319000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2497000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1979000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2069000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>743000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1271000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3726000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2882000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4590000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2790000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2554000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2740000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1332000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1699000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1702000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1356000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1084000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1879,189 +1975,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5369000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4722000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4306000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3717000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3031000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2635000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3545000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3913000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1865000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7613000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4708000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27607000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27645000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20970000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18216000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19023000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14313000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10021000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9562000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7822000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11786000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9190000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="E47" s="3">
         <v>231000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2157000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4082000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1926000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4708000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4056000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3647000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3043000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3369000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>811000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3230000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2737000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2695000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2472000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2253000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2150000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1888000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1892000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1732000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1634000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1541000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43622000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43718000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42436000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42752000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42958000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42300000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34195000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23164000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23032000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23101000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23104000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6732000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6588000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4316000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1703000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1817000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>564000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>216000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>304000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>327000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>123000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82896000</v>
+      </c>
+      <c r="E54" s="3">
         <v>80919000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72574000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69225000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67977000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64035000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39367000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38569000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35956000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40013000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34760000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,61 +2402,65 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E57" s="3">
         <v>174000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>156000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>183000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>179000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>203000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>147000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>184000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>152000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2999000</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1749000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2340,105 +2474,114 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14474000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11337000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13259000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11122000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8066000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7843000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5309000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5859000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4151000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7802000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3282000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15739000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14510000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13415000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11305000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9994000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8046000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5355000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6006000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4335000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7954000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3451000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19978000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21071000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16729000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16630000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16618000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15882000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2451,45 +2594,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9590000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9128000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7746000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7284000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8605000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7195000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4170000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5150000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4751000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4429000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4872000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45307000</v>
+      </c>
+      <c r="E66" s="3">
         <v>44709000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37890000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35219000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35217000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31123000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9525000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11156000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9086000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12383000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8323000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,30 +2884,33 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>3080000</v>
+      </c>
+      <c r="E70" s="3">
         <v>5086000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5462000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5470000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5526000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5717000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2755,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15351000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14088000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13502000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11318000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9508000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10462000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11843000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9131000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7974000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7809000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6706000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34509000</v>
+      </c>
+      <c r="E76" s="3">
         <v>31124000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29222000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28536000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27234000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27195000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29842000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27413000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26870000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27630000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26437000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12008000</v>
+      </c>
+      <c r="E81" s="3">
         <v>10475000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11650000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9942000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6467000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5929000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6313000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5421000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4961000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2137000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3638000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E83" s="3">
         <v>767000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>656000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>613000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>556000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>502000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>494000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>435000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>397000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>333000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>288000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15227000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10440000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12784000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12941000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9317000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5574000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6584000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7205000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3022000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5009000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3872000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-705000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-736000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-756000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-718000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-707000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-523000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-414000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-553000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-471000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-376000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-353000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1427000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-591000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3084000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>735000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10916000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1435000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-941000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2414000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3762,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2798000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2664000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2269000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1918000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1579000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1350000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-864000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-595000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-423000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14410000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3968000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12061000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10790000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5924000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7477000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3603000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6478000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2655000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3304000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E101" s="3">
         <v>440000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-277000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-101000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>236000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8339000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-145000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1034000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4364000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2101000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1547000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-215000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1740000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -665,12 +665,11 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1166,25 +1165,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17380000</v>
+        <v>17343000</v>
       </c>
       <c r="E21" s="3">
-        <v>15073000</v>
+        <v>14962000</v>
       </c>
       <c r="F21" s="3">
-        <v>16073000</v>
+        <v>16030000</v>
       </c>
       <c r="G21" s="3">
-        <v>14031000</v>
+        <v>13974000</v>
       </c>
       <c r="H21" s="3">
-        <v>12813000</v>
+        <v>12759000</v>
       </c>
       <c r="I21" s="3">
-        <v>8941000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>9489000</v>
+        <v>8933000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>8159000</v>
@@ -3306,25 +3305,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>804000</v>
+        <v>767000</v>
       </c>
       <c r="E83" s="3">
-        <v>767000</v>
+        <v>656000</v>
       </c>
       <c r="F83" s="3">
-        <v>656000</v>
+        <v>613000</v>
       </c>
       <c r="G83" s="3">
-        <v>613000</v>
+        <v>556000</v>
       </c>
       <c r="H83" s="3">
-        <v>556000</v>
+        <v>502000</v>
       </c>
       <c r="I83" s="3">
-        <v>502000</v>
-      </c>
-      <c r="J83" s="3">
         <v>494000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>435000</v>
@@ -3540,25 +3539,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15227000</v>
+        <v>10440000</v>
       </c>
       <c r="E89" s="3">
-        <v>10440000</v>
+        <v>12784000</v>
       </c>
       <c r="F89" s="3">
-        <v>12784000</v>
+        <v>12941000</v>
       </c>
       <c r="G89" s="3">
-        <v>12941000</v>
+        <v>9317000</v>
       </c>
       <c r="H89" s="3">
-        <v>9317000</v>
+        <v>5574000</v>
       </c>
       <c r="I89" s="3">
-        <v>5574000</v>
+        <v>6584000</v>
       </c>
       <c r="J89" s="3">
-        <v>6584000</v>
+        <v>7205000</v>
       </c>
       <c r="K89" s="3">
         <v>7205000</v>
@@ -3596,25 +3595,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-705000</v>
+        <v>-736000</v>
       </c>
       <c r="E91" s="3">
-        <v>-736000</v>
+        <v>-756000</v>
       </c>
       <c r="F91" s="3">
-        <v>-756000</v>
+        <v>-718000</v>
       </c>
       <c r="G91" s="3">
-        <v>-718000</v>
+        <v>-707000</v>
       </c>
       <c r="H91" s="3">
-        <v>-707000</v>
+        <v>-523000</v>
       </c>
       <c r="I91" s="3">
-        <v>-523000</v>
+        <v>-414000</v>
       </c>
       <c r="J91" s="3">
-        <v>-414000</v>
+        <v>-553000</v>
       </c>
       <c r="K91" s="3">
         <v>-553000</v>
@@ -3713,25 +3712,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-152000</v>
+        <v>1427000</v>
       </c>
       <c r="E94" s="3">
-        <v>1427000</v>
+        <v>-591000</v>
       </c>
       <c r="F94" s="3">
-        <v>-591000</v>
+        <v>-3084000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3084000</v>
+        <v>735000</v>
       </c>
       <c r="H94" s="3">
-        <v>735000</v>
+        <v>-10916000</v>
       </c>
       <c r="I94" s="3">
-        <v>-10916000</v>
-      </c>
-      <c r="J94" s="3">
         <v>-1435000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>-941000</v>
@@ -3769,25 +3768,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2798000</v>
+        <v>-2664000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2664000</v>
+        <v>-2269000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2269000</v>
+        <v>-1918000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1918000</v>
+        <v>-1579000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1579000</v>
+        <v>-1350000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1350000</v>
+        <v>-1177000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1177000</v>
+        <v>-1006000</v>
       </c>
       <c r="K96" s="3">
         <v>-1006000</v>
@@ -3925,25 +3924,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14410000</v>
+        <v>-3968000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3968000</v>
+        <v>-12061000</v>
       </c>
       <c r="F100" s="3">
-        <v>-12061000</v>
+        <v>-10790000</v>
       </c>
       <c r="G100" s="3">
-        <v>-10790000</v>
+        <v>-5924000</v>
       </c>
       <c r="H100" s="3">
-        <v>-5924000</v>
+        <v>7477000</v>
       </c>
       <c r="I100" s="3">
-        <v>7477000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-3603000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>-6478000</v>
@@ -3964,25 +3963,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37000</v>
+        <v>440000</v>
       </c>
       <c r="E101" s="3">
-        <v>440000</v>
+        <v>-277000</v>
       </c>
       <c r="F101" s="3">
-        <v>-277000</v>
+        <v>-101000</v>
       </c>
       <c r="G101" s="3">
-        <v>-101000</v>
+        <v>236000</v>
       </c>
       <c r="H101" s="3">
-        <v>236000</v>
+        <v>-34000</v>
       </c>
       <c r="I101" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="J101" s="3">
         <v>1000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>-1000</v>
@@ -4003,25 +4002,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>628000</v>
+        <v>8339000</v>
       </c>
       <c r="E102" s="3">
-        <v>8339000</v>
+        <v>-145000</v>
       </c>
       <c r="F102" s="3">
-        <v>-145000</v>
+        <v>-1034000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1034000</v>
+        <v>4364000</v>
       </c>
       <c r="H102" s="3">
-        <v>4364000</v>
+        <v>2101000</v>
       </c>
       <c r="I102" s="3">
-        <v>2101000</v>
+        <v>1547000</v>
       </c>
       <c r="J102" s="3">
-        <v>1547000</v>
+        <v>-215000</v>
       </c>
       <c r="K102" s="3">
         <v>-215000</v>

--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29310000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24105000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21846000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22977000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20609000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18358000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15082000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13880000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12702000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11778000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10421000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9188000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5708000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4970000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4512000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4165000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3856000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3248000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2764000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2553000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2382000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1932000</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23602000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19135000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17334000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18812000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16753000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15110000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12318000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10320000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9846000</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,9 +907,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,87 +949,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>607000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1879000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>453000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4106000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>861000</v>
+      </c>
+      <c r="E15" s="3">
         <v>804000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>767000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>656000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>613000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>556000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>502000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>494000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>435000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>397000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>333000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>288000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1051,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10497000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8301000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7765000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7976000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7655000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6214000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7199000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4816000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5005000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4554000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8288000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3732000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18813000</v>
+      </c>
+      <c r="E18" s="3">
         <v>15804000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14081000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15001000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12954000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12144000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7883000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9064000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7697000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7224000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2133000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5456000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,109 +1153,116 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E20" s="3">
         <v>772000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>225000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>416000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>464000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>113000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>556000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-69000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>74000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>232000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17343000</v>
+        <v>19535000</v>
       </c>
       <c r="E21" s="3">
-        <v>14962000</v>
+        <v>17380000</v>
       </c>
       <c r="F21" s="3">
-        <v>16030000</v>
+        <v>15073000</v>
       </c>
       <c r="G21" s="3">
-        <v>13974000</v>
+        <v>16073000</v>
       </c>
       <c r="H21" s="3">
-        <v>12759000</v>
+        <v>14031000</v>
       </c>
       <c r="I21" s="3">
-        <v>8933000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>12813000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8941000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8159000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7654000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2540000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5976000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E22" s="3">
         <v>513000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>516000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>533000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>612000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>563000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>427000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1233,90 +1273,99 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18136000</v>
+      </c>
+      <c r="E23" s="3">
         <v>16063000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13790000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14884000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12806000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11694000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8012000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8995000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7724000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7257000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2207000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5656000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3752000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2924000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2804000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2491000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4995000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2021000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2667000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2286000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2277000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2010000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1402,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14957000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12311000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10866000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12080000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10315000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6699000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5991000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6328000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5438000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4980000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2142000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3646000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14630000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12008000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10475000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11650000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9956000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6467000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5929000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6313000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5421000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4961000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2137000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3638000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,9 +1528,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,14 +1543,14 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-14000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1506,12 +1567,15 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1612,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1654,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-772000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-225000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-416000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-464000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-113000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-556000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>69000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-74000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-232000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14630000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12008000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10475000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11650000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9942000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6467000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5929000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6313000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5421000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4961000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2137000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3638000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1780,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14630000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12008000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10475000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11650000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9942000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6467000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5929000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6313000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5421000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4961000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2137000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3638000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1890,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,125 +1908,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15689000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16487000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16289000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7838000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8162000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9874000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5619000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3518000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1971000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2186000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2074000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2127000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2833000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2025000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3752000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4236000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3547000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3564000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3319000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2497000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1979000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2069000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>743000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1271000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3952000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3726000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2882000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4590000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2790000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2554000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2740000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1332000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1699000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1702000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1356000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1084000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1977,204 +2073,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7731000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5369000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4722000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4306000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3717000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3031000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2635000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3545000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3913000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1865000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7613000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4708000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30205000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27607000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27645000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20970000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18216000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19023000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14313000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10021000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9562000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7822000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11786000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9190000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2136000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1705000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>231000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2157000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4082000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1926000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4708000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4056000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3647000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3043000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3369000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>811000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3703000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3230000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2737000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2695000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2472000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2253000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2150000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1888000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1892000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1732000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1634000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1541000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42852000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43622000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43718000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42436000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42752000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42958000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42300000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34195000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23164000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23032000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23101000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23104000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2325,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2367,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6605000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6732000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6588000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4316000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1703000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1817000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>564000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>216000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>304000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>327000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>123000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2451,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85501000</v>
+      </c>
+      <c r="E54" s="3">
         <v>82896000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80919000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72574000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69225000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67977000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64035000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39367000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38569000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35956000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40013000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34760000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2514,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,67 +2532,71 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E57" s="3">
         <v>266000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>174000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>156000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>183000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>179000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>203000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>127000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>147000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>184000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2250000</v>
+      </c>
+      <c r="E58" s="3">
         <v>999000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2999000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1749000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2476,114 +2610,123 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18263000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14474000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11337000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13259000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11122000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8066000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7843000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5309000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5859000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4151000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7802000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3282000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20853000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15739000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14510000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13415000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11305000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9994000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8046000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5355000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6006000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4335000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7954000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3451000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20200000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19978000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21071000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16729000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16630000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16618000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15882000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2596,48 +2739,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8867000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9590000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9128000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7746000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7284000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8605000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7195000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4170000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5150000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4751000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4429000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4872000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2823,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2865,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2907,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49920000</v>
+      </c>
+      <c r="E66" s="3">
         <v>45307000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44709000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37890000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>35219000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35217000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31123000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9525000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11156000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9086000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12383000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8323000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2970,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3009,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,33 +3051,36 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E70" s="3">
         <v>3080000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>5086000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5462000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5470000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5526000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5717000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2925,9 +3093,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3135,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16116000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15351000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14088000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13502000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11318000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9508000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10462000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11843000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9131000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7974000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7809000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6706000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3219,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3261,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3303,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33257000</v>
+      </c>
+      <c r="E76" s="3">
         <v>34509000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31124000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29222000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28536000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27234000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27195000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29842000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27413000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26870000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27630000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26437000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3387,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14630000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12008000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10475000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11650000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9942000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6467000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5929000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6313000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5421000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4961000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2137000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3638000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3497,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>861000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>804000</v>
+      </c>
+      <c r="F83" s="3">
         <v>767000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>656000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>613000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>556000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>502000</v>
       </c>
-      <c r="I83" s="3">
-        <v>494000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>435000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>397000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>333000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>288000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3578,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3620,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3662,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3704,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3746,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18849000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15227000</v>
+      </c>
+      <c r="F89" s="3">
         <v>10440000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12784000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>12941000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>9317000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5574000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>6584000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>7205000</v>
       </c>
       <c r="K89" s="3">
         <v>7205000</v>
       </c>
       <c r="L89" s="3">
+        <v>7205000</v>
+      </c>
+      <c r="M89" s="3">
         <v>3022000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5009000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3872000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3809,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-970000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-705000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-736000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-756000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-718000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-707000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-523000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-414000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-553000</v>
       </c>
       <c r="K91" s="3">
         <v>-553000</v>
       </c>
       <c r="L91" s="3">
+        <v>-553000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-471000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-376000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-353000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3890,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3932,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4288000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-152000</v>
+      </c>
+      <c r="F94" s="3">
         <v>1427000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-591000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3084000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>735000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-10916000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1435000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-941000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2414000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3995,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3203000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2798000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2664000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2269000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1918000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1579000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1350000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1177000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1006000</v>
       </c>
       <c r="K96" s="3">
         <v>-1006000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1006000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-864000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-595000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-423000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4076,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4118,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4160,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12696000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14410000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3968000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12061000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-10790000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5924000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7477000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-3603000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6478000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2655000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3304000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1287000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F101" s="3">
         <v>440000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-277000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-101000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>236000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>628000</v>
+      </c>
+      <c r="F102" s="3">
         <v>8339000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-145000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1034000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4364000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2101000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1547000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-215000</v>
       </c>
       <c r="K102" s="3">
         <v>-215000</v>
       </c>
       <c r="L102" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="M102" s="3">
         <v>112000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1740000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/V_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/V_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>V</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41912</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40816</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32653000</v>
+      </c>
+      <c r="E8" s="3">
         <v>29310000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24105000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21846000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22977000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20609000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18358000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15082000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13880000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12702000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11778000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10421000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9188000</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6567000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5708000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4970000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4512000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4165000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3856000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3248000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2764000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2553000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2382000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1932000</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26086000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23602000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19135000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17334000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18812000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16753000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15110000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12318000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11327000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10320000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9846000</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +881,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,9 +923,12 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,93 +968,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E14" s="3">
         <v>928000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>607000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1879000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>453000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4106000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E15" s="3">
         <v>861000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>804000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>767000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>656000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>613000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>556000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>502000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>494000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>435000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>397000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>333000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>288000</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1052,92 +1077,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11653000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10497000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8301000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7765000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7976000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7655000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6214000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7199000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4816000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5005000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4554000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8288000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3732000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="E18" s="3">
         <v>18813000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15804000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14081000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15001000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12954000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12144000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7883000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9064000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7697000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7224000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2133000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5456000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,118 +1186,125 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-139000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>772000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>225000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>416000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>464000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>113000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>556000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-69000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>74000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>232000</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22624000</v>
+      </c>
+      <c r="E21" s="3">
         <v>19535000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17380000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15073000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16073000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14031000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12813000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8941000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8159000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7654000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2540000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5976000</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E22" s="3">
         <v>538000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>513000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>516000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>533000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>612000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>563000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>427000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1276,96 +1315,105 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21037000</v>
+      </c>
+      <c r="E23" s="3">
         <v>18136000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16063000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13790000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14884000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12806000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11694000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8012000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8995000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7724000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7257000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2207000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5656000</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3764000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3179000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3752000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2924000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2804000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2491000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4995000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2021000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2667000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2286000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2277000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2010000</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1405,93 +1453,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17273000</v>
+      </c>
+      <c r="E26" s="3">
         <v>14957000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12311000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10866000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12080000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10315000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6699000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5991000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6328000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5438000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4980000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2142000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3646000</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16989000</v>
+      </c>
+      <c r="E27" s="3">
         <v>14630000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12008000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10475000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11650000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9956000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6467000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5929000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6313000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5421000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4961000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2137000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3638000</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1531,9 +1588,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,14 +1606,14 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-14000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1570,12 +1630,15 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1615,9 +1678,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1657,93 +1723,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-681000</v>
+      </c>
+      <c r="E32" s="3">
         <v>139000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-772000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-225000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-416000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-464000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-113000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-556000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>69000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-74000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-232000</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16989000</v>
+      </c>
+      <c r="E33" s="3">
         <v>14630000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12008000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10475000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11650000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9942000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6467000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5929000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6313000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5421000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4961000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2137000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3638000</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1783,98 +1858,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16989000</v>
+      </c>
+      <c r="E35" s="3">
         <v>14630000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12008000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10475000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11650000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9942000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6467000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5929000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6313000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5421000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4961000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2137000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3638000</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41912</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40816</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1891,8 +1975,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1909,134 +1994,144 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16286000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15689000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16487000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16289000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7838000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8162000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9874000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5619000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3518000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1971000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2186000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2074000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2127000</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3842000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2833000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2025000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3752000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4236000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3547000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3564000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3319000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2497000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1979000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2069000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>743000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1271000</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4474000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3952000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3726000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2882000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4590000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2790000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2554000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2740000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1332000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1699000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1702000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1356000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1084000</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2076,219 +2171,237 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8930000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7731000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5369000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4722000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4306000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3717000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3031000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2635000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3545000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3913000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1865000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7613000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4708000</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33532000</v>
+      </c>
+      <c r="E46" s="3">
         <v>30205000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27607000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27645000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20970000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18216000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19023000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14313000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10021000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9562000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7822000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11786000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9190000</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2136000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1705000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>231000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2157000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4082000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1926000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4708000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4056000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3647000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3043000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3369000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>811000</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3913000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3703000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3230000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2737000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2695000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2472000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2253000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2150000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1888000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1892000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1732000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1634000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1541000</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44101000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42852000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43622000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43718000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42436000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42752000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42958000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42300000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34195000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23164000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23032000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23101000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23104000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2328,9 +2441,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2370,51 +2486,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7032000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6605000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6732000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6588000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4316000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1703000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1817000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>564000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>216000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>304000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>327000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>114000</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2454,51 +2576,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90499000</v>
+      </c>
+      <c r="E54" s="3">
         <v>85501000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>82896000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80919000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72574000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69225000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67977000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64035000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39367000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38569000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35956000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40013000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34760000</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2515,8 +2643,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2533,73 +2662,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E57" s="3">
         <v>340000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>266000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>174000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>156000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>183000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>179000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>203000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>127000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>147000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>184000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>169000</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>999000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2999000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1749000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2613,123 +2746,132 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22723000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18263000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14474000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11337000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13259000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11122000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8066000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7843000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5309000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5859000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4151000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7802000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3282000</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23098000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20853000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15739000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14510000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13415000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11305000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9994000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8046000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5355000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6006000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4335000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7954000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3451000</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20463000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20200000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19978000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21071000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16729000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16630000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16618000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15882000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2742,51 +2884,57 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8205000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8867000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9590000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9128000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7746000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7284000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8605000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7195000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4170000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5150000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4751000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4429000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4872000</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2826,9 +2974,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2868,9 +3019,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2910,51 +3064,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51766000</v>
+      </c>
+      <c r="E66" s="3">
         <v>49920000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45307000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>44709000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37890000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>35219000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>35217000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31123000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9525000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11156000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9086000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12383000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8323000</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2971,8 +3131,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3012,9 +3173,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3054,36 +3218,39 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1698000</v>
+      </c>
+      <c r="E70" s="3">
         <v>2324000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>3080000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>5086000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>5462000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>5470000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>5526000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>5717000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3096,9 +3263,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3138,51 +3308,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18040000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16116000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15351000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13502000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11318000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9508000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10462000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11843000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9131000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7974000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7809000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6706000</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3222,9 +3398,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3264,9 +3443,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3306,51 +3488,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37035000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33257000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34509000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31124000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29222000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28536000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27234000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27195000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29842000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27413000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26870000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27630000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26437000</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3390,98 +3578,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41912</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40816</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16989000</v>
+      </c>
+      <c r="E81" s="3">
         <v>14630000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12008000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10475000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11650000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9942000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6467000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5929000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6313000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5421000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4961000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2137000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3638000</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3498,50 +3695,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E83" s="3">
         <v>861000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>804000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>767000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>656000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>613000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>556000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>502000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>333000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>288000</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3581,9 +3782,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3623,9 +3827,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3665,9 +3872,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3707,9 +3917,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3749,51 +3962,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20755000</v>
+      </c>
+      <c r="E89" s="3">
         <v>18849000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15227000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10440000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12784000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12941000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9317000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5574000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>7205000</v>
       </c>
       <c r="L89" s="3">
         <v>7205000</v>
       </c>
       <c r="M89" s="3">
+        <v>7205000</v>
+      </c>
+      <c r="N89" s="3">
         <v>3022000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5009000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3872000</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3810,50 +4029,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1059000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-970000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-705000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-736000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-756000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-718000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-707000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-523000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-553000</v>
       </c>
       <c r="L91" s="3">
         <v>-553000</v>
       </c>
       <c r="M91" s="3">
+        <v>-553000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-471000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-376000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-353000</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3893,9 +4116,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3935,51 +4161,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2006000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4288000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-152000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1427000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-591000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3084000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>735000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10916000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-941000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1164000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2414000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2299000</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3996,50 +4228,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3751000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3203000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2798000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2664000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2269000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1918000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1579000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1350000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1006000</v>
       </c>
       <c r="L96" s="3">
         <v>-1006000</v>
       </c>
       <c r="M96" s="3">
+        <v>-1006000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-864000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-595000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-423000</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4079,9 +4315,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4121,9 +4360,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4163,133 +4405,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17772000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12696000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14410000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3968000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12061000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10790000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5924000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7477000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6478000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1746000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2655000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3304000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>636000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1287000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>440000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-277000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-101000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>236000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-34000</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E102" s="3">
         <v>578000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>628000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8339000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-145000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1034000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4364000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2101000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-215000</v>
       </c>
       <c r="L102" s="3">
         <v>-215000</v>
       </c>
       <c r="M102" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="N102" s="3">
         <v>112000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-53000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1740000</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
